--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_16_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_16_8.xlsx
@@ -518,276 +518,276 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_21</t>
+          <t>model_16_8_16</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9584280709691909</v>
+        <v>0.9908617075974854</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7621274519262441</v>
+        <v>0.7798399873479853</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8676372692092136</v>
+        <v>0.6809390552969105</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7172495364373618</v>
+        <v>0.9864306842064974</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8648573343905152</v>
+        <v>0.9768542460265124</v>
       </c>
       <c r="G2" t="n">
-        <v>0.277991680850152</v>
+        <v>0.06110780337358265</v>
       </c>
       <c r="H2" t="n">
-        <v>1.590654824271577</v>
+        <v>1.472211018347666</v>
       </c>
       <c r="I2" t="n">
-        <v>1.500779767223732</v>
+        <v>0.1630049758568329</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2354213711606233</v>
+        <v>0.2054173936256333</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8681000667225935</v>
+        <v>0.184211200515933</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4907374681173316</v>
+        <v>0.2481308183155168</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5272491639160294</v>
+        <v>0.2471999259174295</v>
       </c>
       <c r="N2" t="n">
-        <v>1.020361761157947</v>
+        <v>1.004475898319599</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5496952523801671</v>
+        <v>0.2577237385381255</v>
       </c>
       <c r="P2" t="n">
-        <v>148.5603281814774</v>
+        <v>151.5902314123417</v>
       </c>
       <c r="Q2" t="n">
-        <v>237.5382633968561</v>
+        <v>240.5681666277203</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_22</t>
+          <t>model_16_8_17</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9583291046066816</v>
+        <v>0.9906529602278878</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7621273311335176</v>
+        <v>0.7798320236859563</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8674550839351134</v>
+        <v>0.6714930717292942</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7144781502097644</v>
+        <v>0.9860036920370274</v>
       </c>
       <c r="F3" t="n">
-        <v>0.864516835708558</v>
+        <v>0.9761449753351532</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2786534693719498</v>
+        <v>0.06250369799527473</v>
       </c>
       <c r="H3" t="n">
-        <v>1.590655632013094</v>
+        <v>1.472264271392324</v>
       </c>
       <c r="I3" t="n">
-        <v>1.502845454231109</v>
+        <v>0.1678308323238981</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2377288600237569</v>
+        <v>0.2118813612925283</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8702872881096582</v>
+        <v>0.1898561065188099</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4919635715937214</v>
+        <v>0.2453021826940256</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5278763769785022</v>
+        <v>0.2500073958811513</v>
       </c>
       <c r="N3" t="n">
-        <v>1.02041023447836</v>
+        <v>1.004578141929198</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5503491672012195</v>
+        <v>0.260650728310467</v>
       </c>
       <c r="P3" t="n">
-        <v>148.5555726288002</v>
+        <v>151.5450591121315</v>
       </c>
       <c r="Q3" t="n">
-        <v>237.5335078441788</v>
+        <v>240.5229943275101</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_20</t>
+          <t>model_16_8_15</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9585365026223704</v>
+        <v>0.9910778796663805</v>
       </c>
       <c r="C4" t="n">
-        <v>0.762126204996722</v>
+        <v>0.7798318813983772</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8678379550684909</v>
+        <v>0.690968514909905</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7203108943295273</v>
+        <v>0.9868982355769824</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8652327952240804</v>
+        <v>0.9776208224530938</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2772665978860592</v>
+        <v>0.05966225975350015</v>
       </c>
       <c r="H4" t="n">
-        <v>1.590663162495032</v>
+        <v>1.47226522287002</v>
       </c>
       <c r="I4" t="n">
-        <v>1.498504313435706</v>
+        <v>0.1578810274412893</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2328724484691939</v>
+        <v>0.1983394255561523</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8656882630690267</v>
+        <v>0.1781102126634953</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4893783048888982</v>
+        <v>0.2512626224859723</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5265611055576164</v>
+        <v>0.2442585919747761</v>
       </c>
       <c r="N4" t="n">
-        <v>1.020308651776798</v>
+        <v>1.004370018122589</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5489779019529594</v>
+        <v>0.2546571859201327</v>
       </c>
       <c r="P4" t="n">
-        <v>148.5655515768162</v>
+        <v>151.6381112468342</v>
       </c>
       <c r="Q4" t="n">
-        <v>237.5434867921948</v>
+        <v>240.6160464622128</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_23</t>
+          <t>model_16_8_18</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9582389806593929</v>
+        <v>0.9904536036153055</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7621261686444745</v>
+        <v>0.7798125408027183</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8672901510360591</v>
+        <v>0.6626539037830728</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7119698379365125</v>
+        <v>0.9856143474177578</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8642087111509394</v>
+        <v>0.9754909850832001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2792561286224523</v>
+        <v>0.06383679658156527</v>
       </c>
       <c r="H5" t="n">
-        <v>1.590663405582679</v>
+        <v>1.472394553522246</v>
       </c>
       <c r="I5" t="n">
-        <v>1.504715527146435</v>
+        <v>0.1723466728916276</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2398173104093995</v>
+        <v>0.217775406219306</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8722665516369918</v>
+        <v>0.1950610494891703</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4930703990514796</v>
+        <v>0.2427554720701971</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5284469023681114</v>
+        <v>0.2526594478375295</v>
       </c>
       <c r="N5" t="n">
-        <v>1.020454376819889</v>
+        <v>1.00467578598434</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5509439810378147</v>
+        <v>0.2634156836091325</v>
       </c>
       <c r="P5" t="n">
-        <v>148.5512517891009</v>
+        <v>151.5028510119195</v>
       </c>
       <c r="Q5" t="n">
-        <v>237.5291870044796</v>
+        <v>240.4807862272982</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_24</t>
+          <t>model_16_8_14</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9581570111735309</v>
+        <v>0.9912985286293464</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7621243448530286</v>
+        <v>0.7798019106943408</v>
       </c>
       <c r="D6" t="n">
-        <v>0.867140716636068</v>
+        <v>0.7015353605731084</v>
       </c>
       <c r="E6" t="n">
-        <v>0.709703482963569</v>
+        <v>0.9874090822038218</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8639299856101275</v>
+        <v>0.9784458163786107</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2798042589518464</v>
+        <v>0.05818677912215188</v>
       </c>
       <c r="H6" t="n">
-        <v>1.590675601284475</v>
+        <v>1.472465637105914</v>
       </c>
       <c r="I6" t="n">
-        <v>1.506409872093037</v>
+        <v>0.152482533984761</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2417043042927847</v>
+        <v>0.1906060376518006</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8740569681533815</v>
+        <v>0.1715442947153522</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4940658094875646</v>
+        <v>0.2547384448314155</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5289652719714654</v>
+        <v>0.2412193589290708</v>
       </c>
       <c r="N6" t="n">
-        <v>1.020494525139495</v>
+        <v>1.004261945161137</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5514844187083565</v>
+        <v>0.251488566431592</v>
       </c>
       <c r="P6" t="n">
-        <v>148.5473299909037</v>
+        <v>151.6881942257995</v>
       </c>
       <c r="Q6" t="n">
-        <v>237.5252652062823</v>
+        <v>240.6661294411782</v>
       </c>
     </row>
     <row r="7">
@@ -797,437 +797,437 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9586551670134368</v>
+        <v>0.9902649065268814</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7621231080951688</v>
+        <v>0.7797850649176403</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8680588892510976</v>
+        <v>0.6544256300916295</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7236926869006217</v>
+        <v>0.9852599107984954</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8656469968810835</v>
+        <v>0.9748898027885887</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2764730885565991</v>
+        <v>0.06509861488072795</v>
       </c>
       <c r="H7" t="n">
-        <v>1.590683871489978</v>
+        <v>1.472578284892278</v>
       </c>
       <c r="I7" t="n">
-        <v>1.495999276336792</v>
+        <v>0.1765504138279095</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2300567280843836</v>
+        <v>0.2231410007446553</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8630276045385812</v>
+        <v>0.1998457072862824</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4878655363005908</v>
+        <v>0.2404593693002143</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5258070830224705</v>
+        <v>0.2551443020738028</v>
       </c>
       <c r="N7" t="n">
-        <v>1.020250530442398</v>
+        <v>1.004768209048058</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5481917791174504</v>
+        <v>0.2660063232346014</v>
       </c>
       <c r="P7" t="n">
-        <v>148.5712835833315</v>
+        <v>151.4637040135754</v>
       </c>
       <c r="Q7" t="n">
-        <v>237.5492187987101</v>
+        <v>240.441639228954</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_18</t>
+          <t>model_16_8_20</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9587848412355907</v>
+        <v>0.9900875731066885</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7621175316307561</v>
+        <v>0.7797523034393827</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8683022037257528</v>
+        <v>0.6467975908603765</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7274243116373351</v>
+        <v>0.9849377033710085</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8661035122833842</v>
+        <v>0.9743385361012356</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2756059564359608</v>
+        <v>0.06628444427810271</v>
       </c>
       <c r="H8" t="n">
-        <v>1.590721161333183</v>
+        <v>1.472797361048239</v>
       </c>
       <c r="I8" t="n">
-        <v>1.493240482842176</v>
+        <v>0.1804475011128557</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2269497333120148</v>
+        <v>0.2280186976726663</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8600951401727955</v>
+        <v>0.204233099392761</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4861920111496205</v>
+        <v>0.2383884717701948</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5249818629590557</v>
+        <v>0.2574576553107378</v>
       </c>
       <c r="N8" t="n">
-        <v>1.02018701653767</v>
+        <v>1.004855066233459</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5473314277274951</v>
+        <v>0.2684181607081341</v>
       </c>
       <c r="P8" t="n">
-        <v>148.5775662549277</v>
+        <v>151.4276000711847</v>
       </c>
       <c r="Q8" t="n">
-        <v>237.5555014703063</v>
+        <v>240.4055352865633</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_17</t>
+          <t>model_16_8_13</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9589259953089196</v>
+        <v>0.9915194990593517</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7621086631012065</v>
+        <v>0.779742638806229</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8685691121014198</v>
+        <v>0.7125622584522364</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7315367166730549</v>
+        <v>0.9879659188549829</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8666056211963111</v>
+        <v>0.979329319104253</v>
       </c>
       <c r="G9" t="n">
-        <v>0.274662058497656</v>
+        <v>0.05670914883923202</v>
       </c>
       <c r="H9" t="n">
-        <v>1.590780465231117</v>
+        <v>1.47286198849464</v>
       </c>
       <c r="I9" t="n">
-        <v>1.490214172584671</v>
+        <v>0.1468490045528348</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2235256963711789</v>
+        <v>0.1821764355040271</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8568698021283805</v>
+        <v>0.164512720028431</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4843363015052629</v>
+        <v>0.2585883694899791</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5240821104537494</v>
+        <v>0.2381368279775978</v>
       </c>
       <c r="N9" t="n">
-        <v>1.020117879848693</v>
+        <v>1.00415371474644</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5463933708952934</v>
+        <v>0.2482748057557961</v>
       </c>
       <c r="P9" t="n">
-        <v>148.5844276303918</v>
+        <v>151.739639452151</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.5623628457704</v>
+        <v>240.7175746675296</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_16</t>
+          <t>model_16_8_21</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9590794263173575</v>
+        <v>0.9899218962627371</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7620955169744001</v>
+        <v>0.7797162858805083</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8688619236581815</v>
+        <v>0.6397537774806954</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7360679221828086</v>
+        <v>0.9846450820699144</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8671576781172949</v>
+        <v>0.9738341611960599</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2736360646377463</v>
+        <v>0.06739232609647818</v>
       </c>
       <c r="H10" t="n">
-        <v>1.590868373441604</v>
+        <v>1.473038210630278</v>
       </c>
       <c r="I10" t="n">
-        <v>1.48689416205473</v>
+        <v>0.1840461133810023</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2197529612156784</v>
+        <v>0.2324485087187668</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8533236189316877</v>
+        <v>0.2082472916674621</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4822777236892282</v>
+        <v>0.2365257589010764</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5231023462361322</v>
+        <v>0.2596003199082739</v>
       </c>
       <c r="N10" t="n">
-        <v>1.020042729967009</v>
+        <v>1.004936214075394</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5453718960865407</v>
+        <v>0.2706520429735145</v>
       </c>
       <c r="P10" t="n">
-        <v>148.5919125734483</v>
+        <v>151.3944482473626</v>
       </c>
       <c r="Q10" t="n">
-        <v>237.569847788827</v>
+        <v>240.3723834627413</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_15</t>
+          <t>model_16_8_22</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9592455427391484</v>
+        <v>0.9897678696639788</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7620768196759959</v>
+        <v>0.7796786593204283</v>
       </c>
       <c r="D11" t="n">
-        <v>0.869182267216345</v>
+        <v>0.6332684958184451</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7410528668641861</v>
+        <v>0.9843796210500093</v>
       </c>
       <c r="F11" t="n">
-        <v>0.867763519612377</v>
+        <v>0.9733735367511622</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2725252433603352</v>
+        <v>0.0684223026716021</v>
       </c>
       <c r="H11" t="n">
-        <v>1.590993402362125</v>
+        <v>1.473289819610788</v>
       </c>
       <c r="I11" t="n">
-        <v>1.483261983058574</v>
+        <v>0.1873593775028884</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2156024374737792</v>
+        <v>0.2364671572378189</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8494319460840928</v>
+        <v>0.2119132850967013</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4800014923057354</v>
+        <v>0.2348443966468738</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5220395036396529</v>
+        <v>0.2615765713354353</v>
       </c>
       <c r="N11" t="n">
-        <v>1.019961366821642</v>
+        <v>1.005011655674786</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5442638060803419</v>
+        <v>0.2727124275153346</v>
       </c>
       <c r="P11" t="n">
-        <v>148.6000480659692</v>
+        <v>151.3641128901002</v>
       </c>
       <c r="Q11" t="n">
-        <v>237.5779832813478</v>
+        <v>240.3420481054789</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_14</t>
+          <t>model_16_8_12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9594248292700975</v>
+        <v>0.9917351387386639</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7620509888943952</v>
+        <v>0.7796446071599712</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8695323966954673</v>
+        <v>0.7239347470915413</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7465301445594652</v>
+        <v>0.9885711665412019</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8684274653838443</v>
+        <v>0.9802699525582491</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2713263535023401</v>
+        <v>0.05526716531074152</v>
       </c>
       <c r="H12" t="n">
-        <v>1.59116613291763</v>
+        <v>1.47351752656456</v>
       </c>
       <c r="I12" t="n">
-        <v>1.479292079785681</v>
+        <v>0.1410389163334601</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2110419914571647</v>
+        <v>0.1730139689439525</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8451670356214229</v>
+        <v>0.1570264563273415</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4774709788271757</v>
+        <v>0.2628862244534086</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5208899629502762</v>
+        <v>0.2350896963091779</v>
       </c>
       <c r="N12" t="n">
-        <v>1.019873553010564</v>
+        <v>1.004048095311675</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5430653270639412</v>
+        <v>0.2450979513838195</v>
       </c>
       <c r="P12" t="n">
-        <v>148.6088658523429</v>
+        <v>151.7911526049587</v>
       </c>
       <c r="Q12" t="n">
-        <v>237.5868010677215</v>
+        <v>240.7690878203373</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_13</t>
+          <t>model_16_8_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9596172701623122</v>
+        <v>0.9896253177284339</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7620159833843632</v>
+        <v>0.779640532094411</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8699132797683049</v>
+        <v>0.6273172864075084</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7525418595955634</v>
+        <v>0.9841390531111589</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8691531894731739</v>
+        <v>0.9729537373970957</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2700395003699916</v>
+        <v>0.06937554812098216</v>
       </c>
       <c r="H13" t="n">
-        <v>1.5914002149244</v>
+        <v>1.473544776546725</v>
       </c>
       <c r="I13" t="n">
-        <v>1.474973480388573</v>
+        <v>0.1903997895697788</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2060365666065999</v>
+        <v>0.2401089649560986</v>
       </c>
       <c r="K13" t="n">
-        <v>0.840505287035009</v>
+        <v>0.2152543619558521</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4746746519680924</v>
+        <v>0.2333288247611732</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5196532501293449</v>
+        <v>0.263392384326089</v>
       </c>
       <c r="N13" t="n">
-        <v>1.019779296247031</v>
+        <v>1.005081477030971</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5417759648178744</v>
+        <v>0.2746055434242514</v>
       </c>
       <c r="P13" t="n">
-        <v>148.6183740660352</v>
+        <v>151.3364416122075</v>
       </c>
       <c r="Q13" t="n">
-        <v>237.5963092814138</v>
+        <v>240.3143768275862</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_12</t>
+          <t>model_16_8_24</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.95982285175718</v>
+        <v>0.9894937912468842</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7619692939528124</v>
+        <v>0.7796027666921815</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8703268460867782</v>
+        <v>0.6218647755156008</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7591297653514522</v>
+        <v>0.9839211847282797</v>
       </c>
       <c r="F14" t="n">
-        <v>0.869945218680899</v>
+        <v>0.9725715253598493</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2686647752984946</v>
+        <v>0.07025506630872842</v>
       </c>
       <c r="H14" t="n">
-        <v>1.591712427368164</v>
+        <v>1.473797313965327</v>
       </c>
       <c r="I14" t="n">
-        <v>1.470284305728441</v>
+        <v>0.193185421659979</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2005513985662486</v>
+        <v>0.243407138279318</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8354176220479999</v>
+        <v>0.2182962908691826</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4715781073150865</v>
+        <v>0.2319674098041789</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5183288293144561</v>
+        <v>0.2650567228136808</v>
       </c>
       <c r="N14" t="n">
-        <v>1.019678603220973</v>
+        <v>1.005145898164791</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5403951606669667</v>
+        <v>0.2763407362469157</v>
       </c>
       <c r="P14" t="n">
-        <v>148.6285817300006</v>
+        <v>151.3112457101899</v>
       </c>
       <c r="Q14" t="n">
-        <v>237.6065169453792</v>
+        <v>240.2891809255686</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9600411327872246</v>
+        <v>0.9919377154668143</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7619077552735052</v>
+        <v>0.7794958533140837</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8707744152134187</v>
+        <v>0.7354786657287979</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7663386649243713</v>
+        <v>0.989226904825683</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8708074243095586</v>
+        <v>0.981264110907962</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2672051290454947</v>
+        <v>0.05391253379681919</v>
       </c>
       <c r="H15" t="n">
-        <v>1.592123936800052</v>
+        <v>1.474512244216958</v>
       </c>
       <c r="I15" t="n">
-        <v>1.465209594095621</v>
+        <v>0.1351412462801406</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1945491837488716</v>
+        <v>0.1630871567635515</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8298791730290141</v>
+        <v>0.149114201521846</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4681576229645302</v>
+        <v>0.2676722878856639</v>
       </c>
       <c r="M15" t="n">
-        <v>0.516918880527201</v>
+        <v>0.232190727198179</v>
       </c>
       <c r="N15" t="n">
-        <v>1.0195716900634</v>
+        <v>1.003948874057071</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5389251874408418</v>
+        <v>0.242075567156072</v>
       </c>
       <c r="P15" t="n">
-        <v>148.6394772839487</v>
+        <v>151.8407845802511</v>
       </c>
       <c r="Q15" t="n">
-        <v>237.6174124993273</v>
+        <v>240.8187197956298</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9602707704398032</v>
+        <v>0.9921169831205012</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7618273094424801</v>
+        <v>0.7792811642034825</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8712557261736108</v>
+        <v>0.7469569607650539</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7742105645542587</v>
+        <v>0.9899345728466585</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8717423869038259</v>
+        <v>0.9823055473377661</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2656695410053172</v>
+        <v>0.05271377017116316</v>
       </c>
       <c r="H16" t="n">
-        <v>1.592661878442535</v>
+        <v>1.475947871288101</v>
       </c>
       <c r="I16" t="n">
-        <v>1.459752304521101</v>
+        <v>0.1292771026539013</v>
       </c>
       <c r="J16" t="n">
-        <v>0.18799494726361</v>
+        <v>0.1523742127483044</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8238733636363543</v>
+        <v>0.140825672437203</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4643708200263893</v>
+        <v>0.2729808693027699</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5154314125131657</v>
+        <v>0.2295947956099248</v>
       </c>
       <c r="N16" t="n">
-        <v>1.019459214478464</v>
+        <v>1.003861069491999</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5373743948339657</v>
+        <v>0.2393691213857866</v>
       </c>
       <c r="P16" t="n">
-        <v>148.6510041391522</v>
+        <v>151.8857571279912</v>
       </c>
       <c r="Q16" t="n">
-        <v>237.6289393545308</v>
+        <v>240.8636923433698</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9605100559478537</v>
+        <v>0.9922593689571246</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7617229197959519</v>
+        <v>0.7789813760256677</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8717708781573448</v>
+        <v>0.7580394534315408</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7827872890068863</v>
+        <v>0.9906945581556349</v>
       </c>
       <c r="F17" t="n">
-        <v>0.872752829319676</v>
+        <v>0.9833840402471943</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2640694377111752</v>
+        <v>0.05176163542603655</v>
       </c>
       <c r="H17" t="n">
-        <v>1.59335993248954</v>
+        <v>1.477952556213546</v>
       </c>
       <c r="I17" t="n">
-        <v>1.453911312350465</v>
+        <v>0.1236151704132903</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1808538653171356</v>
+        <v>0.1408692699980987</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8173827033799295</v>
+        <v>0.1322422202056945</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4601893594218402</v>
+        <v>0.2788727488113578</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5138768701850427</v>
+        <v>0.2275118357932979</v>
       </c>
       <c r="N17" t="n">
-        <v>1.019342013413296</v>
+        <v>1.003791329490388</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5357536724205882</v>
+        <v>0.2371974856574446</v>
       </c>
       <c r="P17" t="n">
-        <v>148.6630863775734</v>
+        <v>151.9222120659174</v>
       </c>
       <c r="Q17" t="n">
-        <v>237.6410215929521</v>
+        <v>240.9001472812961</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9607561025816146</v>
+        <v>0.9923472662610993</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7615881899280456</v>
+        <v>0.7785722844649134</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8723181028046535</v>
+        <v>0.768290000677623</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7921094391374628</v>
+        <v>0.9915059801551231</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8738399645429191</v>
+        <v>0.9844847494335848</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2624241227382753</v>
+        <v>0.05117386574962773</v>
       </c>
       <c r="H18" t="n">
-        <v>1.594260871736603</v>
+        <v>1.480688153364003</v>
       </c>
       <c r="I18" t="n">
-        <v>1.447706667932051</v>
+        <v>0.1183782705855102</v>
       </c>
       <c r="J18" t="n">
-        <v>0.173092133158492</v>
+        <v>0.1285856593281201</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8103994005452716</v>
+        <v>0.1234819542460645</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4555703828289692</v>
+        <v>0.2854093310736298</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5122734843208999</v>
+        <v>0.2262164135283462</v>
       </c>
       <c r="N18" t="n">
-        <v>1.019221500776352</v>
+        <v>1.003748277749666</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5340820271007426</v>
+        <v>0.2358469145847801</v>
       </c>
       <c r="P18" t="n">
-        <v>148.6755865899408</v>
+        <v>151.9450526236607</v>
       </c>
       <c r="Q18" t="n">
-        <v>237.6535218053195</v>
+        <v>240.9229878390393</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9610048261972702</v>
+        <v>0.9923578484239468</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7614151204804109</v>
+        <v>0.7780234796379161</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8728941582473576</v>
+        <v>0.7771301950726774</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8022148339907444</v>
+        <v>0.9923661408805033</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8750032353481227</v>
+        <v>0.9855865409396396</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2607609067751189</v>
+        <v>0.05110310277793983</v>
       </c>
       <c r="H19" t="n">
-        <v>1.595418187929847</v>
+        <v>1.484358013769148</v>
       </c>
       <c r="I19" t="n">
-        <v>1.441175128819459</v>
+        <v>0.1138619056155621</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1646782622049187</v>
+        <v>0.1155642235390495</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8029270345159396</v>
+        <v>0.1147130743780289</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4504779967071685</v>
+        <v>0.292655512547475</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5106475367365624</v>
+        <v>0.2260599539457173</v>
       </c>
       <c r="N19" t="n">
-        <v>1.019099676964602</v>
+        <v>1.003743094649495</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5323868595615643</v>
+        <v>0.2356837941938028</v>
       </c>
       <c r="P19" t="n">
-        <v>148.6883027150001</v>
+        <v>151.947820127782</v>
       </c>
       <c r="Q19" t="n">
-        <v>237.6662379303787</v>
+        <v>240.9257553431606</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.961250148464428</v>
+        <v>0.9922617614072788</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7611935547916912</v>
+        <v>0.7772966585197008</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8734928201996692</v>
+        <v>0.7838050107233663</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8131286214768204</v>
+        <v>0.9932697660059749</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8762390150451989</v>
+        <v>0.9866601729346229</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2591204356450302</v>
+        <v>0.0517456371008388</v>
       </c>
       <c r="H20" t="n">
-        <v>1.596899798710533</v>
+        <v>1.489218269933358</v>
       </c>
       <c r="I20" t="n">
-        <v>1.434387268369103</v>
+        <v>0.1104518105160136</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1555913140098419</v>
+        <v>0.1018848073537542</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7949889016350465</v>
+        <v>0.1061683089348839</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4448649207102819</v>
+        <v>0.3006796816463886</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5090387368806328</v>
+        <v>0.2274766737510437</v>
       </c>
       <c r="N20" t="n">
-        <v>1.018979519119464</v>
+        <v>1.003790157678067</v>
       </c>
       <c r="O20" t="n">
-        <v>0.530709569765093</v>
+        <v>0.2371608266942562</v>
       </c>
       <c r="P20" t="n">
-        <v>148.7009246457446</v>
+        <v>151.9228303152418</v>
       </c>
       <c r="Q20" t="n">
-        <v>237.6788598611232</v>
+        <v>240.9007655306204</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9614839621333102</v>
+        <v>0.9920214551492633</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7609107543029663</v>
+        <v>0.7763439366964369</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8741048655355842</v>
+        <v>0.787343521596174</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8248741494146205</v>
+        <v>0.9942081464203162</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8775403164193287</v>
+        <v>0.9876662038871613</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2575569225646013</v>
+        <v>0.05335256615469707</v>
       </c>
       <c r="H21" t="n">
-        <v>1.598790886880813</v>
+        <v>1.495589125152404</v>
       </c>
       <c r="I21" t="n">
-        <v>1.427447661946079</v>
+        <v>0.1086440214745566</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1458118489038202</v>
+        <v>0.08767925256552958</v>
       </c>
       <c r="K21" t="n">
-        <v>0.78662988485368</v>
+        <v>0.09816156308700325</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4386872166762147</v>
+        <v>0.3095650754862856</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5075006626247903</v>
+        <v>0.2309817442022141</v>
       </c>
       <c r="N21" t="n">
-        <v>1.018864998138787</v>
+        <v>1.003907858702402</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5291060165039267</v>
+        <v>0.240815115251029</v>
       </c>
       <c r="P21" t="n">
-        <v>148.7130290496097</v>
+        <v>151.8616664040439</v>
       </c>
       <c r="Q21" t="n">
-        <v>237.6909642649884</v>
+        <v>240.8396016194226</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9616950246031341</v>
+        <v>0.9915890790314242</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7605505395628519</v>
+        <v>0.7751050239719739</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8747160214600179</v>
+        <v>0.7865032300047786</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8374580544271115</v>
+        <v>0.995167718572608</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8788952976273304</v>
+        <v>0.9885518289902894</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2561455468570361</v>
+        <v>0.05624386724559587</v>
       </c>
       <c r="H22" t="n">
-        <v>1.601199644506594</v>
+        <v>1.503873740245556</v>
       </c>
       <c r="I22" t="n">
-        <v>1.420518140013966</v>
+        <v>0.1090733178608491</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1353343411562885</v>
+        <v>0.07315288929716887</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7779260512289005</v>
+        <v>0.09111309693458786</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4318978515728958</v>
+        <v>0.3193903305373149</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5061082363062629</v>
+        <v>0.2371578951787097</v>
       </c>
       <c r="N22" t="n">
-        <v>1.018761620602546</v>
+        <v>1.004119634760119</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5276543117142998</v>
+        <v>0.2472541977609891</v>
       </c>
       <c r="P22" t="n">
-        <v>148.7240189073026</v>
+        <v>151.7561165411728</v>
       </c>
       <c r="Q22" t="n">
-        <v>237.7019541226812</v>
+        <v>240.7340517565515</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.961868443356193</v>
+        <v>0.990904018415837</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7600924882449168</v>
+        <v>0.7735045733469595</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8753063257519333</v>
+        <v>0.7797106593575341</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8508711603383274</v>
+        <v>0.9961288756063089</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8802856032959645</v>
+        <v>0.989247922866657</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2549858948568106</v>
+        <v>0.06082487073644199</v>
       </c>
       <c r="H23" t="n">
-        <v>1.604262635778758</v>
+        <v>1.514575960944425</v>
       </c>
       <c r="I23" t="n">
-        <v>1.413825041945355</v>
+        <v>0.1125435727846859</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1241664309595947</v>
+        <v>0.05860253349939691</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7689953080156974</v>
+        <v>0.08557306186878959</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4244434746522752</v>
+        <v>0.330250626331233</v>
       </c>
       <c r="M23" t="n">
-        <v>0.504961280552094</v>
+        <v>0.2466269870400277</v>
       </c>
       <c r="N23" t="n">
-        <v>1.01867668080513</v>
+        <v>1.004455174653468</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5264585276791501</v>
+        <v>0.2571264084665658</v>
       </c>
       <c r="P23" t="n">
-        <v>148.7330940992812</v>
+        <v>151.5995130309727</v>
       </c>
       <c r="Q23" t="n">
-        <v>237.7110293146599</v>
+        <v>240.5774482463513</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9619838917123278</v>
+        <v>0.9898897106714688</v>
       </c>
       <c r="C24" t="n">
-        <v>0.759510631104534</v>
+        <v>0.7714483983583114</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8758458978477558</v>
+        <v>0.7649958728536891</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8650783959768653</v>
+        <v>0.9970634646291811</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8816824244208636</v>
+        <v>0.9896644798118867</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2542138911677468</v>
+        <v>0.06760755129348973</v>
       </c>
       <c r="H24" t="n">
-        <v>1.608153517155704</v>
+        <v>1.528325612561331</v>
       </c>
       <c r="I24" t="n">
-        <v>1.407707165111513</v>
+        <v>0.120061206824884</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1123373189847324</v>
+        <v>0.04445437421774451</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7600227122314145</v>
+        <v>0.08225779052131424</v>
       </c>
       <c r="L24" t="n">
-        <v>0.416281607443185</v>
+        <v>0.3422288668996889</v>
       </c>
       <c r="M24" t="n">
-        <v>0.504196282381918</v>
+        <v>0.2600145213127331</v>
       </c>
       <c r="N24" t="n">
-        <v>1.018620134671513</v>
+        <v>1.004951978446627</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5256609619531052</v>
+        <v>0.2710838777892766</v>
       </c>
       <c r="P24" t="n">
-        <v>148.7391585502237</v>
+        <v>151.3880711932936</v>
       </c>
       <c r="Q24" t="n">
-        <v>237.7170937656024</v>
+        <v>240.3660064086723</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9620143725892685</v>
+        <v>0.9884499123376455</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7587716618486764</v>
+        <v>0.7688186985932854</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8762925334822412</v>
+        <v>0.7399179797594604</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8800155808391009</v>
+        <v>0.9979321853819358</v>
       </c>
       <c r="F25" t="n">
-        <v>0.883044718646639</v>
+        <v>0.9896857839192141</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2540100654032932</v>
+        <v>0.0772354893814287</v>
       </c>
       <c r="H25" t="n">
-        <v>1.613095007972264</v>
+        <v>1.545910426998713</v>
       </c>
       <c r="I25" t="n">
-        <v>1.40264303777331</v>
+        <v>0.1328732461115131</v>
       </c>
       <c r="J25" t="n">
-        <v>0.09990044267606388</v>
+        <v>0.0313033535225941</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7512719028333761</v>
+        <v>0.0820882365205588</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4078590489079894</v>
+        <v>0.3554333223994464</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5039941124688792</v>
+        <v>0.2779127369902803</v>
       </c>
       <c r="N25" t="n">
-        <v>1.018605205262399</v>
+        <v>1.005657185793806</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5254501852483189</v>
+        <v>0.2897440575626311</v>
       </c>
       <c r="P25" t="n">
-        <v>148.7407627703535</v>
+        <v>151.121792441142</v>
       </c>
       <c r="Q25" t="n">
-        <v>237.7186979857321</v>
+        <v>240.0997276565206</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9619240042088677</v>
+        <v>0.9864639918507695</v>
       </c>
       <c r="C26" t="n">
-        <v>0.757833108666742</v>
+        <v>0.765468641829302</v>
       </c>
       <c r="D26" t="n">
-        <v>0.87658690812277</v>
+        <v>0.701481135345461</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8955788560432775</v>
+        <v>0.9986807623648558</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8843131636162291</v>
+        <v>0.9891640385786753</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2546143591791409</v>
+        <v>0.09051534882149123</v>
       </c>
       <c r="H26" t="n">
-        <v>1.619371117421499</v>
+        <v>1.568312272005063</v>
       </c>
       <c r="I26" t="n">
-        <v>1.399305304395871</v>
+        <v>0.1525102370993861</v>
       </c>
       <c r="J26" t="n">
-        <v>0.08694227616361289</v>
+        <v>0.01997111429258029</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7431239418784172</v>
+        <v>0.0862406756959832</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3986565976052099</v>
+        <v>0.3699531910331533</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5045932611313204</v>
+        <v>0.3008576886527769</v>
       </c>
       <c r="N26" t="n">
-        <v>1.018649467326269</v>
+        <v>1.00662988154248</v>
       </c>
       <c r="O26" t="n">
-        <v>0.526074840909729</v>
+        <v>0.313665823319998</v>
       </c>
       <c r="P26" t="n">
-        <v>148.7360103909475</v>
+        <v>150.8044716848385</v>
       </c>
       <c r="Q26" t="n">
-        <v>237.7139456063262</v>
+        <v>239.7824069002172</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_16_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_16_8.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_16</t>
+          <t>model_16_8_5</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9908617075974854</v>
+        <v>0.9716374694110276</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7798399873479853</v>
+        <v>0.8069684661259127</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6809390552969105</v>
+        <v>0.9843934777934658</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9864306842064974</v>
+        <v>0.841267687784139</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9768542460265124</v>
+        <v>0.9664999537050791</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06110780337358265</v>
+        <v>0.1896603726459034</v>
       </c>
       <c r="H2" t="n">
-        <v>1.472211018347666</v>
+        <v>1.290802755844508</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1630049758568329</v>
+        <v>0.1494986776068896</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2054173936256333</v>
+        <v>0.2172617713613878</v>
       </c>
       <c r="K2" t="n">
-        <v>0.184211200515933</v>
+        <v>0.1833802127267917</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2481308183155168</v>
+        <v>0.3920280024744048</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2471999259174295</v>
+        <v>0.4355001408104289</v>
       </c>
       <c r="N2" t="n">
-        <v>1.004475898319599</v>
+        <v>1.013891851717048</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2577237385381255</v>
+        <v>0.4540402834143006</v>
       </c>
       <c r="P2" t="n">
-        <v>151.5902314123417</v>
+        <v>149.3250406374366</v>
       </c>
       <c r="Q2" t="n">
-        <v>240.5681666277203</v>
+        <v>238.3029758528152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_17</t>
+          <t>model_16_8_6</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9906529602278878</v>
+        <v>0.9733636559042205</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7798320236859563</v>
+        <v>0.8066426496323124</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6714930717292942</v>
+        <v>0.9786452248186807</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9860036920370274</v>
+        <v>0.8223478705625085</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9761449753351532</v>
+        <v>0.9591050211768912</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06250369799527473</v>
+        <v>0.1781173556175649</v>
       </c>
       <c r="H3" t="n">
-        <v>1.472264271392324</v>
+        <v>1.29298149223746</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1678308323238981</v>
+        <v>0.2045625929948055</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2118813612925283</v>
+        <v>0.243157903951047</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1898561065188099</v>
+        <v>0.223860285147616</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2453021826940256</v>
+        <v>0.4477960486861019</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2500073958811513</v>
+        <v>0.4220395190234735</v>
       </c>
       <c r="N3" t="n">
-        <v>1.004578141929198</v>
+        <v>1.013046372618341</v>
       </c>
       <c r="O3" t="n">
-        <v>0.260650728310467</v>
+        <v>0.4400066150905462</v>
       </c>
       <c r="P3" t="n">
-        <v>151.5450591121315</v>
+        <v>149.4506252894227</v>
       </c>
       <c r="Q3" t="n">
-        <v>240.5229943275101</v>
+        <v>238.4285605048013</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_15</t>
+          <t>model_16_8_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9910778796663805</v>
+        <v>0.9688320815553414</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7798318813983772</v>
+        <v>0.8065613724791008</v>
       </c>
       <c r="D4" t="n">
-        <v>0.690968514909905</v>
+        <v>0.9892123433498806</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9868982355769824</v>
+        <v>0.859839344656119</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9776208224530938</v>
+        <v>0.9730381601197199</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05966225975350015</v>
+        <v>0.2084200141545</v>
       </c>
       <c r="H4" t="n">
-        <v>1.47226522287002</v>
+        <v>1.293524992935233</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1578810274412893</v>
+        <v>0.1033375906769787</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1983394255561523</v>
+        <v>0.1918421764925424</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1781102126634953</v>
+        <v>0.1475898835847606</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2512626224859723</v>
+        <v>0.3377868417366816</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2442585919747761</v>
+        <v>0.4565304087949674</v>
       </c>
       <c r="N4" t="n">
-        <v>1.004370018122589</v>
+        <v>1.0152659192382</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2546571859201327</v>
+        <v>0.4759658534455972</v>
       </c>
       <c r="P4" t="n">
-        <v>151.6381112468342</v>
+        <v>149.136399873009</v>
       </c>
       <c r="Q4" t="n">
-        <v>240.6160464622128</v>
+        <v>238.1143350883877</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_18</t>
+          <t>model_16_8_7</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9904536036153055</v>
+        <v>0.9741958415468918</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7798125408027183</v>
+        <v>0.8057270457635471</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6626539037830728</v>
+        <v>0.9720317404601859</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9856143474177578</v>
+        <v>0.8032363410221874</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9754909850832001</v>
+        <v>0.9509290830086887</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06383679658156527</v>
+        <v>0.1725525263931593</v>
       </c>
       <c r="H5" t="n">
-        <v>1.472394553522246</v>
+        <v>1.299104139523861</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1723466728916276</v>
+        <v>0.2679147705577768</v>
       </c>
       <c r="J5" t="n">
-        <v>0.217775406219306</v>
+        <v>0.2693164390557901</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1950610494891703</v>
+        <v>0.2686156048067834</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2427554720701971</v>
+        <v>0.5039970912643191</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2526594478375295</v>
+        <v>0.4153944226794087</v>
       </c>
       <c r="N5" t="n">
-        <v>1.00467578598434</v>
+        <v>1.012638771487237</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2634156836091325</v>
+        <v>0.4330786232378688</v>
       </c>
       <c r="P5" t="n">
-        <v>151.5028510119195</v>
+        <v>149.5141071760636</v>
       </c>
       <c r="Q5" t="n">
-        <v>240.4807862272982</v>
+        <v>238.4920423914422</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_14</t>
+          <t>model_16_8_3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9912985286293464</v>
+        <v>0.9647275085890687</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7798019106943408</v>
+        <v>0.8052385255740275</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7015353605731084</v>
+        <v>0.9930959876494614</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9874090822038218</v>
+        <v>0.8777547550454429</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9784458163786107</v>
+        <v>0.9786760320646524</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05818677912215188</v>
+        <v>0.2358673124797865</v>
       </c>
       <c r="H6" t="n">
-        <v>1.472465637105914</v>
+        <v>1.302370876280607</v>
       </c>
       <c r="I6" t="n">
-        <v>0.152482533984761</v>
+        <v>0.06613521596470864</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1906060376518006</v>
+        <v>0.16732080625913</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1715442947153522</v>
+        <v>0.1167280111119193</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2547384448314155</v>
+        <v>0.2863229313802417</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2412193589290708</v>
+        <v>0.4856617263896616</v>
       </c>
       <c r="N6" t="n">
-        <v>1.004261945161137</v>
+        <v>1.017276322323721</v>
       </c>
       <c r="O6" t="n">
-        <v>0.251488566431592</v>
+        <v>0.5063373515404384</v>
       </c>
       <c r="P6" t="n">
-        <v>151.6881942257995</v>
+        <v>148.8889717346503</v>
       </c>
       <c r="Q6" t="n">
-        <v>240.6661294411782</v>
+        <v>237.866906950029</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_19</t>
+          <t>model_16_8_8</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9902649065268814</v>
+        <v>0.974294079636138</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7797850649176403</v>
+        <v>0.8043366060991493</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6544256300916295</v>
+        <v>0.9646680706903508</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9852599107984954</v>
+        <v>0.7839847124448038</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9748898027885887</v>
+        <v>0.9420792316715219</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06509861488072795</v>
+        <v>0.1718956078380246</v>
       </c>
       <c r="H7" t="n">
-        <v>1.472578284892278</v>
+        <v>1.308402015962076</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1765504138279095</v>
+        <v>0.3384531569039206</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2231410007446553</v>
+        <v>0.2956667319981992</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1998457072862824</v>
+        <v>0.3170599444510599</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2404593693002143</v>
+        <v>0.5596885478813536</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2551443020738028</v>
+        <v>0.414602952037277</v>
       </c>
       <c r="N7" t="n">
-        <v>1.004768209048058</v>
+        <v>1.012590654872096</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2660063232346014</v>
+        <v>0.4322534580519314</v>
       </c>
       <c r="P7" t="n">
-        <v>151.4637040135754</v>
+        <v>149.5217358352005</v>
       </c>
       <c r="Q7" t="n">
-        <v>240.441639228954</v>
+        <v>238.4996710505791</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_20</t>
+          <t>model_16_8_2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9900875731066885</v>
+        <v>0.9590516433587742</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7797523034393827</v>
+        <v>0.8027598484245211</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6467975908603765</v>
+        <v>0.9960893406835372</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9849377033710085</v>
+        <v>0.8944842885037084</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9743385361012356</v>
+        <v>0.9833866642621376</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06628444427810271</v>
+        <v>0.2738218494097217</v>
       </c>
       <c r="H8" t="n">
-        <v>1.472797361048239</v>
+        <v>1.318945801792616</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1804475011128557</v>
+        <v>0.03746115813922172</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2280186976726663</v>
+        <v>0.1444225820573081</v>
       </c>
       <c r="K8" t="n">
-        <v>0.204233099392761</v>
+        <v>0.09094187556907085</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2383884717701948</v>
+        <v>0.2623110295153245</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2574576553107378</v>
+        <v>0.5232798958585374</v>
       </c>
       <c r="N8" t="n">
-        <v>1.004855066233459</v>
+        <v>1.020056337946723</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2684181607081341</v>
+        <v>0.54555700436395</v>
       </c>
       <c r="P8" t="n">
-        <v>151.4276000711847</v>
+        <v>148.5905551373836</v>
       </c>
       <c r="Q8" t="n">
-        <v>240.4055352865633</v>
+        <v>237.5684903527623</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_13</t>
+          <t>model_16_8_9</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9915194990593517</v>
+        <v>0.9737985213265872</v>
       </c>
       <c r="C9" t="n">
-        <v>0.779742638806229</v>
+        <v>0.8025655346274836</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7125622584522364</v>
+        <v>0.9567055208937256</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9879659188549829</v>
+        <v>0.7645836470341993</v>
       </c>
       <c r="F9" t="n">
-        <v>0.979329319104253</v>
+        <v>0.9326866991536933</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05670914883923202</v>
+        <v>0.1752094085358273</v>
       </c>
       <c r="H9" t="n">
-        <v>1.47286198849464</v>
+        <v>1.320245179048138</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1468490045528348</v>
+        <v>0.4147283609001109</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1821764355040271</v>
+        <v>0.3222215637055199</v>
       </c>
       <c r="K9" t="n">
-        <v>0.164512720028431</v>
+        <v>0.3684749364185146</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2585883694899791</v>
+        <v>0.6140911796446433</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2381368279775978</v>
+        <v>0.4185802295090241</v>
       </c>
       <c r="N9" t="n">
-        <v>1.00415371474644</v>
+        <v>1.012833377309427</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2482748057557961</v>
+        <v>0.4364000564597502</v>
       </c>
       <c r="P9" t="n">
-        <v>151.739639452151</v>
+        <v>149.4835468004664</v>
       </c>
       <c r="Q9" t="n">
-        <v>240.7175746675296</v>
+        <v>238.4614820158451</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_21</t>
+          <t>model_16_8_10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9899218962627371</v>
+        <v>0.9728323655597871</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7797162858805083</v>
+        <v>0.8004925477759561</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6397537774806954</v>
+        <v>0.948316293138122</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9846450820699144</v>
+        <v>0.7449873691926432</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9738341611960599</v>
+        <v>0.9228964203734179</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06739232609647818</v>
+        <v>0.1816700965971576</v>
       </c>
       <c r="H10" t="n">
-        <v>1.473038210630278</v>
+        <v>1.334107251669529</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1840461133810023</v>
+        <v>0.4950908169943099</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2324485087187668</v>
+        <v>0.3490435886386447</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2082472916674621</v>
+        <v>0.4220672028164774</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2365257589010764</v>
+        <v>0.666583720064262</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2596003199082739</v>
+        <v>0.4262277520260238</v>
       </c>
       <c r="N10" t="n">
-        <v>1.004936214075394</v>
+        <v>1.013306596460512</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2706520429735145</v>
+        <v>0.4443731498428525</v>
       </c>
       <c r="P10" t="n">
-        <v>151.3944482473626</v>
+        <v>149.4111257856278</v>
       </c>
       <c r="Q10" t="n">
-        <v>240.3723834627413</v>
+        <v>238.3890610010064</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_22</t>
+          <t>model_16_8_1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9897678696639788</v>
+        <v>0.9514510025469738</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7796786593204283</v>
+        <v>0.7987996929093034</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6332684958184451</v>
+        <v>0.9982569672037145</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9843796210500093</v>
+        <v>0.9091757677090284</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9733735367511622</v>
+        <v>0.9871200150131689</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0684223026716021</v>
+        <v>0.3246473695159646</v>
       </c>
       <c r="H11" t="n">
-        <v>1.473289819610788</v>
+        <v>1.345427379957715</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1873593775028884</v>
+        <v>0.01669693571838915</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2364671572378189</v>
+        <v>0.1243139050557022</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2119132850967013</v>
+        <v>0.07050540664957439</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2348443966468738</v>
+        <v>0.2449981670589287</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2615765713354353</v>
+        <v>0.5697783512173524</v>
       </c>
       <c r="N11" t="n">
-        <v>1.005011655674786</v>
+        <v>1.023779100793319</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2727124275153346</v>
+        <v>0.5940349952324621</v>
       </c>
       <c r="P11" t="n">
-        <v>151.3641128901002</v>
+        <v>148.2500314051666</v>
       </c>
       <c r="Q11" t="n">
-        <v>240.3420481054789</v>
+        <v>237.2279666205452</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_12</t>
+          <t>model_16_8_11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9917351387386639</v>
+        <v>0.9715030258882013</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7796446071599712</v>
+        <v>0.7981845738289743</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7239347470915413</v>
+        <v>0.9396769974751399</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9885711665412019</v>
+        <v>0.7251416770131096</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9802699525582491</v>
+        <v>0.9128561620220682</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05526716531074152</v>
+        <v>0.1905593971020984</v>
       </c>
       <c r="H12" t="n">
-        <v>1.47351752656456</v>
+        <v>1.349540684080239</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1410389163334601</v>
+        <v>0.5778487344840891</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1730139689439525</v>
+        <v>0.3762069946057599</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1570264563273415</v>
+        <v>0.4770278645449245</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2628862244534086</v>
+        <v>0.7167899520805464</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2350896963091779</v>
+        <v>0.4365310952293071</v>
       </c>
       <c r="N12" t="n">
-        <v>1.004048095311675</v>
+        <v>1.013957701605779</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2450979513838195</v>
+        <v>0.4551151276971604</v>
       </c>
       <c r="P12" t="n">
-        <v>151.7911526049587</v>
+        <v>149.3155826744041</v>
       </c>
       <c r="Q12" t="n">
-        <v>240.7690878203373</v>
+        <v>238.2935178897827</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_23</t>
+          <t>model_16_8_12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9896253177284339</v>
+        <v>0.9699030260099145</v>
       </c>
       <c r="C13" t="n">
-        <v>0.779640532094411</v>
+        <v>0.7956994286988416</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6273172864075084</v>
+        <v>0.9309557381876895</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9841390531111589</v>
+        <v>0.7049972225433414</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9729537373970957</v>
+        <v>0.9027068254554297</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06937554812098216</v>
+        <v>0.2012586036555238</v>
       </c>
       <c r="H13" t="n">
-        <v>1.473544776546725</v>
+        <v>1.366158861008478</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1903997895697788</v>
+        <v>0.6613918014971057</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2401089649560986</v>
+        <v>0.4037793256586767</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2152543619558521</v>
+        <v>0.5325856235474298</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2333288247611732</v>
+        <v>0.7643046467265096</v>
       </c>
       <c r="M13" t="n">
-        <v>0.263392384326089</v>
+        <v>0.4486185502802172</v>
       </c>
       <c r="N13" t="n">
-        <v>1.005081477030971</v>
+        <v>1.014741375015552</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2746055434242514</v>
+        <v>0.4677171707340691</v>
       </c>
       <c r="P13" t="n">
-        <v>151.3364416122075</v>
+        <v>149.2063292250278</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.3143768275862</v>
+        <v>238.1842644404065</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_24</t>
+          <t>model_16_8_13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9894937912468842</v>
+        <v>0.9681116584801445</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7796027666921815</v>
+        <v>0.7930877198551031</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6218647755156008</v>
+        <v>0.9223050064382731</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9839211847282797</v>
+        <v>0.6845317838102334</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9725715253598493</v>
+        <v>0.8925791031867136</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07025506630872842</v>
+        <v>0.2132374865755856</v>
       </c>
       <c r="H14" t="n">
-        <v>1.473797313965327</v>
+        <v>1.383623370072371</v>
       </c>
       <c r="I14" t="n">
-        <v>0.193185421659979</v>
+        <v>0.7442592680444076</v>
       </c>
       <c r="J14" t="n">
-        <v>0.243407138279318</v>
+        <v>0.4317909976917558</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2182962908691826</v>
+        <v>0.5880250652641593</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2319674098041789</v>
+        <v>0.8088517407770948</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2650567228136808</v>
+        <v>0.4617764465361844</v>
       </c>
       <c r="N14" t="n">
-        <v>1.005145898164791</v>
+        <v>1.015618779519929</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2763407362469157</v>
+        <v>0.4814352258742531</v>
       </c>
       <c r="P14" t="n">
-        <v>151.3112457101899</v>
+        <v>149.0906975478615</v>
       </c>
       <c r="Q14" t="n">
-        <v>240.2891809255686</v>
+        <v>238.0686327632401</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_11</t>
+          <t>model_16_8_0</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9919377154668143</v>
+        <v>0.9414406891578656</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7794958533140837</v>
+        <v>0.7928973529249745</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7354786657287979</v>
+        <v>0.9996093764554396</v>
       </c>
       <c r="E15" t="n">
-        <v>0.989226904825683</v>
+        <v>0.9204932635927107</v>
       </c>
       <c r="F15" t="n">
-        <v>0.981264110907962</v>
+        <v>0.9897182506887052</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05391253379681919</v>
+        <v>0.3915863812421855</v>
       </c>
       <c r="H15" t="n">
-        <v>1.474512244216958</v>
+        <v>1.3848963546107</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1351412462801406</v>
+        <v>0.003741878080271639</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1630871567635515</v>
+        <v>0.1088233022367865</v>
       </c>
       <c r="K15" t="n">
-        <v>0.149114201521846</v>
+        <v>0.05628259015852909</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2676722878856639</v>
+        <v>0.2057658814040078</v>
       </c>
       <c r="M15" t="n">
-        <v>0.232190727198179</v>
+        <v>0.625768632357188</v>
       </c>
       <c r="N15" t="n">
-        <v>1.003948874057071</v>
+        <v>1.028682111432882</v>
       </c>
       <c r="O15" t="n">
-        <v>0.242075567156072</v>
+        <v>0.6524088985562805</v>
       </c>
       <c r="P15" t="n">
-        <v>151.8407845802511</v>
+        <v>147.8750982922932</v>
       </c>
       <c r="Q15" t="n">
-        <v>240.8187197956298</v>
+        <v>236.8530335076718</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_10</t>
+          <t>model_16_8_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9921169831205012</v>
+        <v>0.9661950718566906</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7792811642034825</v>
+        <v>0.7903940406308934</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7469569607650539</v>
+        <v>0.9138533469140454</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9899345728466585</v>
+        <v>0.6637461053254955</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9823055473377661</v>
+        <v>0.8825854913815296</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05271377017116316</v>
+        <v>0.2260537101516915</v>
       </c>
       <c r="H16" t="n">
-        <v>1.475947871288101</v>
+        <v>1.401636015447913</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1292771026539013</v>
+        <v>0.8252197732572019</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1523742127483044</v>
+        <v>0.460240991669045</v>
       </c>
       <c r="K16" t="n">
-        <v>0.140825672437203</v>
+        <v>0.6427303824631234</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2729808693027699</v>
+        <v>0.8503107026963082</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2295947956099248</v>
+        <v>0.4754510596809008</v>
       </c>
       <c r="N16" t="n">
-        <v>1.003861069491999</v>
+        <v>1.016557515825294</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2393691213857866</v>
+        <v>0.4956919956108916</v>
       </c>
       <c r="P16" t="n">
-        <v>151.8857571279912</v>
+        <v>148.973965304814</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.8636923433698</v>
+        <v>237.9519005201926</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_9</t>
+          <t>model_16_8_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9922593689571246</v>
+        <v>0.964207825847148</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7789813760256677</v>
+        <v>0.7876577813342303</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7580394534315408</v>
+        <v>0.9057037277758075</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9906945581556349</v>
+        <v>0.6426778165816037</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9833840402471943</v>
+        <v>0.8728208367571753</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05176163542603655</v>
+        <v>0.2393424333679292</v>
       </c>
       <c r="H17" t="n">
-        <v>1.477952556213546</v>
+        <v>1.419933393964016</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1236151704132903</v>
+        <v>0.9032869600424971</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1408692699980987</v>
+        <v>0.4890778029531039</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1322422202056945</v>
+        <v>0.6961823814978005</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2788727488113578</v>
+        <v>0.8886669053009456</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2275118357932979</v>
+        <v>0.4892263620942041</v>
       </c>
       <c r="N17" t="n">
-        <v>1.003791329490388</v>
+        <v>1.01753086080956</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2371974856574446</v>
+        <v>0.5100537411667363</v>
       </c>
       <c r="P17" t="n">
-        <v>151.9222120659174</v>
+        <v>148.8597199537924</v>
       </c>
       <c r="Q17" t="n">
-        <v>240.9001472812961</v>
+        <v>237.837655169171</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_8</t>
+          <t>model_16_8_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9923472662610993</v>
+        <v>0.9621941500157877</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7785722844649134</v>
+        <v>0.7849133791511919</v>
       </c>
       <c r="D18" t="n">
-        <v>0.768290000677623</v>
+        <v>0.8979345521756871</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9915059801551231</v>
+        <v>0.621387602280856</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9844847494335848</v>
+        <v>0.8633613143528611</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05117386574962773</v>
+        <v>0.2528078929243603</v>
       </c>
       <c r="H18" t="n">
-        <v>1.480688153364003</v>
+        <v>1.438285223998803</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1183782705855102</v>
+        <v>0.977709785508854</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1285856593281201</v>
+        <v>0.5182183705355486</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1234819542460645</v>
+        <v>0.7479640780222014</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2854093310736298</v>
+        <v>0.9239465031301577</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2262164135283462</v>
+        <v>0.5028000526296316</v>
       </c>
       <c r="N18" t="n">
-        <v>1.003748277749666</v>
+        <v>1.018517151012675</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2358469145847801</v>
+        <v>0.5242052918096699</v>
       </c>
       <c r="P18" t="n">
-        <v>151.9450526236607</v>
+        <v>148.7502507903718</v>
       </c>
       <c r="Q18" t="n">
-        <v>240.9229878390393</v>
+        <v>237.7281860057505</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_7</t>
+          <t>model_16_8_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9923578484239468</v>
+        <v>0.9601893546487931</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7780234796379161</v>
+        <v>0.7821910520872737</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7771301950726774</v>
+        <v>0.8905997634611528</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9923661408805033</v>
+        <v>0.5999735793221468</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9855865409396396</v>
+        <v>0.8542663957174469</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05110310277793983</v>
+        <v>0.2662139687746868</v>
       </c>
       <c r="H19" t="n">
-        <v>1.484358013769148</v>
+        <v>1.456489437610388</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1138619056155621</v>
+        <v>1.047971513191508</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1155642235390495</v>
+        <v>0.5475283988154598</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1147130743780289</v>
+        <v>0.7977499230748394</v>
       </c>
       <c r="L19" t="n">
-        <v>0.292655512547475</v>
+        <v>0.9562410666806797</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2260599539457173</v>
+        <v>0.5159592704610382</v>
       </c>
       <c r="N19" t="n">
-        <v>1.003743094649495</v>
+        <v>1.019499091600591</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2356837941938028</v>
+        <v>0.5379247247874958</v>
       </c>
       <c r="P19" t="n">
-        <v>151.947820127782</v>
+        <v>148.646909799324</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.9257553431606</v>
+        <v>237.6248450147027</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_6</t>
+          <t>model_16_8_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9922617614072788</v>
+        <v>0.9582208429603658</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7772966585197008</v>
+        <v>0.7795166286597861</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7838050107233663</v>
+        <v>0.8837324575913169</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9932697660059749</v>
+        <v>0.5785495812215389</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9866601729346229</v>
+        <v>0.8455792523548575</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0517456371008388</v>
+        <v>0.2793774154993635</v>
       </c>
       <c r="H20" t="n">
-        <v>1.489218269933358</v>
+        <v>1.474373319384584</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1104518105160136</v>
+        <v>1.113755108836709</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1018848073537542</v>
+        <v>0.5768520803772279</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1061683089348839</v>
+        <v>0.8453035946069682</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3006796816463886</v>
+        <v>0.9856876661130685</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2274766737510437</v>
+        <v>0.5285616477757002</v>
       </c>
       <c r="N20" t="n">
-        <v>1.003790157678067</v>
+        <v>1.020463260590841</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2371608266942562</v>
+        <v>0.5510636113949604</v>
       </c>
       <c r="P20" t="n">
-        <v>151.9228303152418</v>
+        <v>148.5503833351379</v>
       </c>
       <c r="Q20" t="n">
-        <v>240.9007655306204</v>
+        <v>237.5283185505165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_5</t>
+          <t>model_16_8_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9920214551492633</v>
+        <v>0.9563094706167288</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7763439366964369</v>
+        <v>0.7769119478170958</v>
       </c>
       <c r="D21" t="n">
-        <v>0.787343521596174</v>
+        <v>0.8773482275620182</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9942081464203162</v>
+        <v>0.5572436810270736</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9876662038871613</v>
+        <v>0.8373295574909126</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05335256615469707</v>
+        <v>0.2921587711623245</v>
       </c>
       <c r="H21" t="n">
-        <v>1.495589125152404</v>
+        <v>1.491790832173107</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1086440214745566</v>
+        <v>1.17491120333922</v>
       </c>
       <c r="J21" t="n">
-        <v>0.08767925256552958</v>
+        <v>0.6060141177222363</v>
       </c>
       <c r="K21" t="n">
-        <v>0.09816156308700325</v>
+        <v>0.890462660530728</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3095650754862856</v>
+        <v>1.012444361747221</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2309817442022141</v>
+        <v>0.5405171330886047</v>
       </c>
       <c r="N21" t="n">
-        <v>1.003907858702402</v>
+        <v>1.021399442963235</v>
       </c>
       <c r="O21" t="n">
-        <v>0.240815115251029</v>
+        <v>0.5635280664689015</v>
       </c>
       <c r="P21" t="n">
-        <v>151.8616664040439</v>
+        <v>148.4609157752558</v>
       </c>
       <c r="Q21" t="n">
-        <v>240.8396016194226</v>
+        <v>237.4388509906344</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_4</t>
+          <t>model_16_8_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9915890790314242</v>
+        <v>0.9544706266449793</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7751050239719739</v>
+        <v>0.7743946493280158</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7865032300047786</v>
+        <v>0.8714480355753929</v>
       </c>
       <c r="E22" t="n">
-        <v>0.995167718572608</v>
+        <v>0.5361919914090409</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9885518289902894</v>
+        <v>0.8295351638717211</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05624386724559587</v>
+        <v>0.3044551292685109</v>
       </c>
       <c r="H22" t="n">
-        <v>1.503873740245556</v>
+        <v>1.508624018760679</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1090733178608491</v>
+        <v>1.23143057953041</v>
       </c>
       <c r="J22" t="n">
-        <v>0.07315288929716887</v>
+        <v>0.6348282092749636</v>
       </c>
       <c r="K22" t="n">
-        <v>0.09111309693458786</v>
+        <v>0.9331293944026868</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3193903305373149</v>
+        <v>1.036677756646754</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2371578951787097</v>
+        <v>0.5517745275640322</v>
       </c>
       <c r="N22" t="n">
-        <v>1.004119634760119</v>
+        <v>1.022300101235112</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2472541977609891</v>
+        <v>0.5752647115331672</v>
       </c>
       <c r="P22" t="n">
-        <v>151.7561165411728</v>
+        <v>148.3784631228293</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.7340517565515</v>
+        <v>237.3563983382079</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_3</t>
+          <t>model_16_8_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.990904018415837</v>
+        <v>0.9527149410545219</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7735045733469595</v>
+        <v>0.7719786401828563</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7797106593575341</v>
+        <v>0.8660221131403457</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9961288756063089</v>
+        <v>0.5155219004089808</v>
       </c>
       <c r="F23" t="n">
-        <v>0.989247922866657</v>
+        <v>0.822203434902565</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06082487073644199</v>
+        <v>0.3161954068960885</v>
       </c>
       <c r="H23" t="n">
-        <v>1.514575960944425</v>
+        <v>1.524779883039059</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1125435727846859</v>
+        <v>1.283406812165857</v>
       </c>
       <c r="J23" t="n">
-        <v>0.05860253349939691</v>
+        <v>0.6631199951261459</v>
       </c>
       <c r="K23" t="n">
-        <v>0.08557306186878959</v>
+        <v>0.9732634887314723</v>
       </c>
       <c r="L23" t="n">
-        <v>0.330250626331233</v>
+        <v>1.058577402646961</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2466269870400277</v>
+        <v>0.5623125526751901</v>
       </c>
       <c r="N23" t="n">
-        <v>1.004455174653468</v>
+        <v>1.023160028871255</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2571264084665658</v>
+        <v>0.5862513621900264</v>
       </c>
       <c r="P23" t="n">
-        <v>151.5995130309727</v>
+        <v>148.3027897605152</v>
       </c>
       <c r="Q23" t="n">
-        <v>240.5774482463513</v>
+        <v>237.2807249758938</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_2</t>
+          <t>model_16_8_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9898897106714688</v>
+        <v>0.951049861148925</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7714483983583114</v>
+        <v>0.7696746514129658</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7649958728536891</v>
+        <v>0.8610536730619811</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9970634646291811</v>
+        <v>0.4953618310966241</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9896644798118867</v>
+        <v>0.8153357843929967</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06760755129348973</v>
+        <v>0.3273298038918028</v>
       </c>
       <c r="H24" t="n">
-        <v>1.528325612561331</v>
+        <v>1.54018666655221</v>
       </c>
       <c r="I24" t="n">
-        <v>0.120061206824884</v>
+        <v>1.331000709874444</v>
       </c>
       <c r="J24" t="n">
-        <v>0.04445437421774451</v>
+        <v>0.6907136986917726</v>
       </c>
       <c r="K24" t="n">
-        <v>0.08225779052131424</v>
+        <v>1.010857204283108</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3422288668996889</v>
+        <v>1.078334454448502</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2600145213127331</v>
+        <v>0.5721274367584575</v>
       </c>
       <c r="N24" t="n">
-        <v>1.004951978446627</v>
+        <v>1.023975578212772</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2710838777892766</v>
+        <v>0.5964840862083293</v>
       </c>
       <c r="P24" t="n">
-        <v>151.3880711932936</v>
+        <v>148.2335740835237</v>
       </c>
       <c r="Q24" t="n">
-        <v>240.3660064086723</v>
+        <v>237.2115092989023</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_1</t>
+          <t>model_16_8_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9884499123376455</v>
+        <v>0.9494795766409511</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7688186985932854</v>
+        <v>0.7674899178036175</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7399179797594604</v>
+        <v>0.8565194778792926</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9979321853819358</v>
+        <v>0.475825330660865</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9896857839192141</v>
+        <v>0.8089260463806079</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0772354893814287</v>
+        <v>0.3378303036271199</v>
       </c>
       <c r="H25" t="n">
-        <v>1.545910426998713</v>
+        <v>1.554795990257695</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1328732461115131</v>
+        <v>1.374434869955262</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0313033535225941</v>
+        <v>0.7174539044609884</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0820882365205588</v>
+        <v>1.045944293712386</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3554333223994464</v>
+        <v>1.096122820912707</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2779127369902803</v>
+        <v>0.5812317125098388</v>
       </c>
       <c r="N25" t="n">
-        <v>1.005657185793806</v>
+        <v>1.024744697155453</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2897440575626311</v>
+        <v>0.6059759498268958</v>
       </c>
       <c r="P25" t="n">
-        <v>151.121792441142</v>
+        <v>148.1704231396967</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.0997276565206</v>
+        <v>237.1483583550754</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_16_8_0</t>
+          <t>model_16_8_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9864639918507695</v>
+        <v>0.9480059017766038</v>
       </c>
       <c r="C26" t="n">
-        <v>0.765468641829302</v>
+        <v>0.7654290368826409</v>
       </c>
       <c r="D26" t="n">
-        <v>0.701481135345461</v>
+        <v>0.8523931834326255</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9986807623648558</v>
+        <v>0.457009051646006</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9891640385786753</v>
+        <v>0.802963262767187</v>
       </c>
       <c r="G26" t="n">
-        <v>0.09051534882149123</v>
+        <v>0.3476847742306591</v>
       </c>
       <c r="H26" t="n">
-        <v>1.568312272005063</v>
+        <v>1.56857711046575</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1525102370993861</v>
+        <v>1.413961649530478</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01997111429258029</v>
+        <v>0.7432083211397992</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0862406756959832</v>
+        <v>1.078584741962714</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3699531910331533</v>
+        <v>1.112126430976671</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3008576886527769</v>
+        <v>0.5896480087566303</v>
       </c>
       <c r="N26" t="n">
-        <v>1.00662988154248</v>
+        <v>1.02546649708901</v>
       </c>
       <c r="O26" t="n">
-        <v>0.313665823319998</v>
+        <v>0.6147505452290483</v>
       </c>
       <c r="P26" t="n">
-        <v>150.8044716848385</v>
+        <v>148.1129180617757</v>
       </c>
       <c r="Q26" t="n">
-        <v>239.7824069002172</v>
+        <v>237.0908532771543</v>
       </c>
     </row>
   </sheetData>
